--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -12,38 +12,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>Surname</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reg </t>
   </si>
   <si>
     <t>Dept</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Test 4</t>
+    <t>Test_1</t>
+  </si>
+  <si>
+    <t>Test_2</t>
+  </si>
+  <si>
+    <t>Test_3</t>
+  </si>
+  <si>
+    <t>Test_4</t>
   </si>
   <si>
     <t>Bandera</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>H190841N</t>
   </si>
   <si>
@@ -53,18 +47,12 @@
     <t>Bhande</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>H190590T</t>
   </si>
   <si>
     <t>Bosha</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H190567H</t>
   </si>
   <si>
@@ -74,54 +62,36 @@
     <t>Bvuma</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>H190506Z</t>
   </si>
   <si>
     <t>Chakanyeka</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>H190451W</t>
   </si>
   <si>
     <t>Chezhira</t>
   </si>
   <si>
-    <t xml:space="preserve">T. </t>
-  </si>
-  <si>
     <t>H180596M</t>
   </si>
   <si>
     <t>Chifodya</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>H190432H</t>
   </si>
   <si>
     <t>Chigunwe</t>
   </si>
   <si>
-    <t>KN</t>
-  </si>
-  <si>
     <t>H190684V</t>
   </si>
   <si>
     <t>Chingombe</t>
   </si>
   <si>
-    <t>TK</t>
-  </si>
-  <si>
     <t>H190426T</t>
   </si>
   <si>
@@ -134,9 +104,6 @@
     <t>Chirima</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>H190478X</t>
   </si>
   <si>
@@ -173,27 +140,18 @@
     <t>Dembure</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>H190446T</t>
   </si>
   <si>
     <t>Dhakwa</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>H190613B</t>
   </si>
   <si>
     <t>Dhliwayo</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>H190485E</t>
   </si>
   <si>
@@ -206,45 +164,30 @@
     <t>John</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>H190608F</t>
   </si>
   <si>
     <t>Kashiri</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>H190515B</t>
   </si>
   <si>
     <t>Kumire</t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
     <t>H190739T</t>
   </si>
   <si>
     <t>Mabureza</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>H190366Y</t>
   </si>
   <si>
     <t>Machekanyanga</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>H190182W</t>
   </si>
   <si>
@@ -257,18 +200,12 @@
     <t>Madzima</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>H190600N</t>
   </si>
   <si>
     <t>Madzimure</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>H190723N</t>
   </si>
   <si>
@@ -281,18 +218,12 @@
     <t>Magumise</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>H190365P</t>
   </si>
   <si>
     <t>Makamure</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>H190736E</t>
   </si>
   <si>
@@ -305,9 +236,6 @@
     <t>Makuza</t>
   </si>
   <si>
-    <t xml:space="preserve">T </t>
-  </si>
-  <si>
     <t>H180110Y</t>
   </si>
   <si>
@@ -320,9 +248,6 @@
     <t>Mambwerere</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>H190622J</t>
   </si>
   <si>
@@ -341,9 +266,6 @@
     <t>Marondedze</t>
   </si>
   <si>
-    <t>HT</t>
-  </si>
-  <si>
     <t>H190787B</t>
   </si>
   <si>
@@ -359,9 +281,6 @@
     <t>Mashingaidze</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>H180642M</t>
   </si>
   <si>
@@ -374,9 +293,6 @@
     <t>Matizanadzo</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
     <t>H190574J</t>
   </si>
   <si>
@@ -389,18 +305,12 @@
     <t>Mazarura</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>H190436X</t>
   </si>
   <si>
     <t>Maziriri</t>
   </si>
   <si>
-    <t xml:space="preserve">B  </t>
-  </si>
-  <si>
     <t>H190711N</t>
   </si>
   <si>
@@ -428,9 +338,6 @@
     <t>Mlambo</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>H190157V</t>
   </si>
   <si>
@@ -443,9 +350,6 @@
     <t>Mudzengerere</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>H190422T</t>
   </si>
   <si>
@@ -464,9 +368,6 @@
     <t>Munyeza</t>
   </si>
   <si>
-    <t>VD</t>
-  </si>
-  <si>
     <t>H190651F</t>
   </si>
   <si>
@@ -479,9 +380,6 @@
     <t>Muzariri</t>
   </si>
   <si>
-    <t>DN</t>
-  </si>
-  <si>
     <t>H190598C</t>
   </si>
   <si>
@@ -506,9 +404,6 @@
     <t>Nyakurwa-Mhlanga</t>
   </si>
   <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>H190316M</t>
   </si>
   <si>
@@ -527,9 +422,6 @@
     <t>Padziri</t>
   </si>
   <si>
-    <t>HG</t>
-  </si>
-  <si>
     <t>H190287G</t>
   </si>
   <si>
@@ -542,9 +434,6 @@
     <t>Ruhukwa</t>
   </si>
   <si>
-    <t>CB</t>
-  </si>
-  <si>
     <t>H190347G</t>
   </si>
   <si>
@@ -563,9 +452,6 @@
     <t>Samubata</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>H190847H</t>
   </si>
   <si>
@@ -596,16 +482,10 @@
     <t>Tokonyai</t>
   </si>
   <si>
-    <t>ATB</t>
-  </si>
-  <si>
     <t>H190494</t>
   </si>
   <si>
     <t>Tsara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K. </t>
   </si>
   <si>
     <t>H190658W</t>
@@ -621,8 +501,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -786,7 +667,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -821,6 +702,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1907,7 +1791,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1915,12 +1799,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44531" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.91406" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.4297" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.45312" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.91406" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4297" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -1933,10 +1817,10 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="5">
         <v>4</v>
       </c>
       <c r="F1" t="s" s="5">
@@ -1945,1393 +1829,1169 @@
       <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="5">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>9</v>
-      </c>
       <c r="C2" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="21" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="21" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="21" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E17" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E25" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="D26" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E26" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E28" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E29" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E30" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E31" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E32" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E33" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s" s="7">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E34" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E36" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E37" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E39" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E40" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s" s="7">
-        <v>113</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E41" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E43" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E44" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="D45" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E46" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="D48" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E48" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="D49" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E49" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E50" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="D51" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E51" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
     </row>
     <row r="52" ht="21" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E52" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="D54" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
     </row>
     <row r="55" ht="21" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="D55" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E55" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
     </row>
     <row r="56" ht="21" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="D56" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E56" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s" s="7">
-        <v>151</v>
-      </c>
-      <c r="D57" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E57" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
     </row>
     <row r="58" ht="21" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="D58" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E58" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E59" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="D60" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E60" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
     </row>
     <row r="61" ht="21" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s" s="7">
-        <v>160</v>
-      </c>
-      <c r="D61" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E61" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s" s="7">
-        <v>162</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E62" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
     </row>
     <row r="63" ht="21" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="D63" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
     </row>
     <row r="64" ht="21" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="D64" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E64" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="D65" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="D66" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E66" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E67" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s" s="7">
-        <v>177</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E68" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
     </row>
     <row r="69" ht="21" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s" s="7">
-        <v>179</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E69" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s" s="7">
-        <v>181</v>
-      </c>
-      <c r="D70" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E70" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E71" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E72" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E73" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s" s="7">
-        <v>190</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E74" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s" s="7">
-        <v>192</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E75" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
     </row>
     <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s" s="7">
-        <v>195</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E76" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="E77" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s" s="7">
-        <v>200</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E78" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -1799,7 +1799,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" hidden="1" width="16.3333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.45312" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.91406" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
@@ -1930,7 +1931,9 @@
       <c r="C8" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="12">
+        <v>0.5454545454545454</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2095,7 +2098,9 @@
       <c r="C19" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12">
+        <v>0.7272727272727273</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2292,7 +2297,9 @@
       <c r="C32" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="12">
+        <v>0.696969696969697</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2549,7 +2556,9 @@
       <c r="C49" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="12">
+        <v>0.7575757575757576</v>
+      </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -2926,7 +2935,9 @@
       <c r="C74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="D74" s="10"/>
+      <c r="D74" s="12">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -2941,7 +2952,9 @@
       <c r="C75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="D75" s="10"/>
+      <c r="D75" s="12">
+        <v>0.7272727272727273</v>
+      </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>

--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>Surname</t>
   </si>
   <si>
+    <t>Initial</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reg </t>
   </si>
   <si>
@@ -38,6 +41,9 @@
     <t>Bandera</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>H190841N</t>
   </si>
   <si>
@@ -47,27 +53,39 @@
     <t>Bhande</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H190590T</t>
   </si>
   <si>
     <t>Bosha</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>H190567H</t>
   </si>
   <si>
-    <t>BIOTEC</t>
+    <t>BT</t>
   </si>
   <si>
     <t>Bvuma</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>H190506Z</t>
   </si>
   <si>
     <t>Chakanyeka</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>H190451W</t>
   </si>
   <si>
@@ -80,12 +98,18 @@
     <t>Chifodya</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>H190432H</t>
   </si>
   <si>
     <t>Chigunwe</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>H190684V</t>
   </si>
   <si>
@@ -104,6 +128,9 @@
     <t>Chirima</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>H190478X</t>
   </si>
   <si>
@@ -140,12 +167,18 @@
     <t>Dembure</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>H190446T</t>
   </si>
   <si>
     <t>Dhakwa</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>H190613B</t>
   </si>
   <si>
@@ -164,6 +197,9 @@
     <t>John</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>H190608F</t>
   </si>
   <si>
@@ -182,6 +218,9 @@
     <t>Mabureza</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>H190366Y</t>
   </si>
   <si>
@@ -200,6 +239,9 @@
     <t>Madzima</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>H190600N</t>
   </si>
   <si>
@@ -224,6 +266,9 @@
     <t>Makamure</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>H190736E</t>
   </si>
   <si>
@@ -266,6 +311,9 @@
     <t>Marondedze</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>H190787B</t>
   </si>
   <si>
@@ -368,6 +416,9 @@
     <t>Munyeza</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>H190651F</t>
   </si>
   <si>
@@ -465,6 +516,15 @@
   </si>
   <si>
     <t>H190416M</t>
+  </si>
+  <si>
+    <t>Sithole</t>
+  </si>
+  <si>
+    <t>H190252R</t>
+  </si>
+  <si>
+    <t>ABS</t>
   </si>
   <si>
     <t>Takaendesa</t>
@@ -548,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -661,13 +721,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -689,6 +794,9 @@
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -698,17 +806,35 @@
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,7 +1917,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1799,13 +1925,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" hidden="1" width="16.3333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.45312" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.91406" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4297" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.45312" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.91406" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4297" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -1818,10 +1943,10 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
       <c r="F1" t="s" s="5">
@@ -1830,1181 +1955,1451 @@
       <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="21" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="C2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>11</v>
+      </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" ht="21" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="21" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="21" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.5454545454545454</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="12">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E19" s="15">
         <v>0.7272727272727273</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="C24" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="C24" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D27" s="12">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E27" s="15">
         <v>0.4848484848484849</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D32" s="12">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11">
         <v>0.696969696969697</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C33" t="s" s="8">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D34" s="12">
+        <v>88</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" t="s" s="8">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E34" s="15">
         <v>0.7878787878787878</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C36" t="s" s="8">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="C37" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>82</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="C39" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C40" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D41" s="12">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E41" s="11">
         <v>0.3939393939393939</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" t="s" s="8">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C43" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="8">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="8">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="C48" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C48" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D49" s="12">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s" s="8">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E49" s="15">
         <v>0.7575757575757576</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C50" t="s" s="8">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C51" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" ht="21" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C52" t="s" s="8">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C53" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C54" t="s" s="8">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" ht="21" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C55" t="s" s="8">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" ht="21" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="C56" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="C57" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" ht="21" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C58" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C59" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="D59" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C60" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" ht="21" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D61" s="12">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E61" s="15">
         <v>0.6666666666666666</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C62" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="D62" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" ht="21" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>130</v>
-      </c>
-      <c r="C63" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C63" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" ht="21" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C64" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="D64" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C65" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="D65" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="C66" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C67" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C67" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>140</v>
-      </c>
-      <c r="C68" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C68" t="s" s="8">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" ht="21" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>142</v>
-      </c>
-      <c r="C69" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C69" t="s" s="8">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C70" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="D70" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C72" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="D72" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C73" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D74" s="12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C74" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s" s="20">
+        <v>170</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="C75" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C75" t="s" s="8">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E75" s="11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C76" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="D76" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="E76" s="15">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C77" t="s" s="8">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>160</v>
-      </c>
-      <c r="C78" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D78" s="12">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s" s="8">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s" s="17">
+        <v>18</v>
+      </c>
+      <c r="E78" s="15">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" ht="21" customHeight="1">
+      <c r="A79" t="s" s="6">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E79" s="11">
         <v>0.6060606060606061</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - HIT 122 2020" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Surname</t>
   </si>
@@ -95,6 +95,9 @@
     <t>H180596M</t>
   </si>
   <si>
+    <t>ABS</t>
+  </si>
+  <si>
     <t>Chifodya</t>
   </si>
   <si>
@@ -209,6 +212,15 @@
     <t>H190515B</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasuso </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H160369G</t>
+  </si>
+  <si>
     <t>Kumire</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>Makamure</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>H190736E</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>H190651F</t>
+    <t>H190651E</t>
   </si>
   <si>
     <t>Musipa</t>
@@ -524,9 +533,6 @@
     <t>H190252R</t>
   </si>
   <si>
-    <t>ABS</t>
-  </si>
-  <si>
     <t>Takaendesa</t>
   </si>
   <si>
@@ -542,7 +548,7 @@
     <t>Tokonyai</t>
   </si>
   <si>
-    <t>H190494</t>
+    <t>H190494P</t>
   </si>
   <si>
     <t>Tsara</t>
@@ -772,7 +778,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -800,7 +806,7 @@
     <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -810,9 +816,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -827,13 +830,19 @@
     <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1917,7 +1926,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1925,11 +1934,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.45312" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.91406" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.4297" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1972,7 +1977,9 @@
       <c r="D2" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2010,7 +2017,9 @@
       <c r="D4" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11">
+        <v>0.6060606060606061</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2028,7 +2037,9 @@
       <c r="D5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11">
+        <v>0.7575757575757576</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2043,10 +2054,10 @@
       <c r="C6" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14">
         <v>0.7878787878787878</v>
       </c>
       <c r="F6" s="12"/>
@@ -2057,27 +2068,29 @@
       <c r="A7" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D7" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12"/>
+      <c r="D7" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="17">
+        <v>27</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="8">
         <v>11</v>
@@ -2091,13 +2104,13 @@
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="8">
         <v>11</v>
@@ -2111,180 +2124,198 @@
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.696969696969697</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="14">
+        <v>0.5454545454545454</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="14">
+        <v>0.5151515151515151</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="14">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="14">
+        <v>0.8787878787878788</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="14">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E16" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.5151515151515151</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="11">
+        <v>0.6363636363636364</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="D18" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.5757575757575758</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>0.7272727272727273</v>
       </c>
       <c r="F19" s="12"/>
@@ -2293,54 +2324,58 @@
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E20" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="D20" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="11">
+        <v>0.696969696969697</v>
+      </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>0.7272727272727273</v>
       </c>
       <c r="F22" s="12"/>
@@ -2349,91 +2384,99 @@
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="11">
+        <v>0.4545454545454545</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="11">
+        <v>0.3939393939393939</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.5151515151515151</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E26" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="D26" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.4242424242424243</v>
+      </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.4848484848484849</v>
+        <v>75</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.7575757575757576</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -2441,91 +2484,99 @@
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E28" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="D28" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.4848484848484849</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="11">
+        <v>0.6060606060606061</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="6">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s" s="7">
         <v>79</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>16</v>
-      </c>
       <c r="C30" t="s" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="11">
+        <v>0.696969696969697</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E31" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D31" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.8484848484848485</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.696969696969697</v>
+        <v>86</v>
+      </c>
+      <c r="D32" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.7575757575757576</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
@@ -2533,35 +2584,39 @@
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="11">
+        <v>0.696969696969697</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>88</v>
-      </c>
-      <c r="B34" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="B34" t="s" s="7">
+        <v>20</v>
+      </c>
       <c r="C34" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0.7878787878787878</v>
+        <v>90</v>
+      </c>
+      <c r="D34" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
@@ -2569,91 +2624,97 @@
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s" s="7">
-        <v>20</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="D35" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.7878787878787878</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="11">
+        <v>0.8181818181818182</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="D37" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.7878787878787878</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="D38" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0.3636363636363636</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="D39" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0.5151515151515151</v>
+      <c r="D39" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.4545454545454545</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -2664,34 +2725,36 @@
         <v>101</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.5151515151515151</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s" s="7">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0.3939393939393939</v>
+        <v>105</v>
+      </c>
+      <c r="D41" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.8787878787878788</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
@@ -2701,33 +2764,35 @@
       <c r="A42" t="s" s="6">
         <v>104</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" t="s" s="7">
+        <v>67</v>
+      </c>
       <c r="C42" t="s" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="11">
+        <v>0.3939393939393939</v>
+      </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>38</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B43" s="15"/>
       <c r="C43" t="s" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s" s="8">
         <v>11</v>
       </c>
       <c r="E43" s="11">
-        <v>0.5757575757575758</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
@@ -2735,109 +2800,119 @@
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E44" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.5757575757575758</v>
+      </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C45" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="D45" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.5454545454545454</v>
+      </c>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E46" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.8181818181818182</v>
+      </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C47" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="D47" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E48" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="D48" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.1818181818181818</v>
+      </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0.7575757575757576</v>
+        <v>120</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.7878787878787878</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
@@ -2845,36 +2920,40 @@
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E50" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="D50" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.7575757575757576</v>
+      </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E51" s="13"/>
+      <c r="E51" s="11">
+        <v>0.8787878787878788</v>
+      </c>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -2884,105 +2963,117 @@
         <v>123</v>
       </c>
       <c r="B52" t="s" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="D52" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E52" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="D52" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.8181818181818182</v>
+      </c>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="D53" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E53" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="D53" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.5757575757575758</v>
+      </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="11">
+        <v>0.7575757575757576</v>
+      </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
     <row r="55" ht="21" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s" s="7">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="21">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
     <row r="56" ht="21" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="11">
+        <v>0.6363636363636364</v>
+      </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s" s="7">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s" s="8">
         <v>135</v>
       </c>
-      <c r="D57" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E57" s="12"/>
+      <c r="D57" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0.9696969696969697</v>
+      </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -2992,70 +3083,76 @@
         <v>136</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="D58" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.3939393939393939</v>
+      </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="D59" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E59" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="D59" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0.8484848484848485</v>
+      </c>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="D60" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E60" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="D60" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.696969696969697</v>
+      </c>
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
     <row r="61" ht="21" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="D61" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E61" s="15">
-        <v>0.6666666666666666</v>
+        <v>144</v>
+      </c>
+      <c r="D61" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0.696969696969697</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
@@ -3063,19 +3160,19 @@
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0.8181818181818182</v>
+        <v>146</v>
+      </c>
+      <c r="D62" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -3083,127 +3180,139 @@
     </row>
     <row r="63" ht="21" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="D63" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E63" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="D63" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0.8181818181818182</v>
+      </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
     </row>
     <row r="64" ht="21" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="D64" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E64" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="D64" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.9696969696969697</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E65" s="12"/>
+      <c r="E65" s="14">
+        <v>0.6363636363636364</v>
+      </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E66" s="12"/>
+      <c r="E66" s="14">
+        <v>0.7878787878787878</v>
+      </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E67" s="12"/>
+      <c r="E67" s="14">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="D68" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E68" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="D68" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0.7575757575757576</v>
+      </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
     </row>
     <row r="69" ht="21" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0.7272727272727273</v>
+        <v>160</v>
+      </c>
+      <c r="D69" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0.6363636363636364</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -3211,19 +3320,19 @@
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s" s="8">
         <v>11</v>
       </c>
       <c r="E70" s="11">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
@@ -3231,73 +3340,79 @@
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" s="11">
+        <v>0.6363636363636364</v>
+      </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="D72" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E72" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.3939393939393939</v>
+      </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E73" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="D73" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0.8181818181818182</v>
+      </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="D74" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E74" t="s" s="20">
         <v>170</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0.9393939393939394</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -3308,16 +3423,16 @@
         <v>171</v>
       </c>
       <c r="B75" t="s" s="7">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s" s="8">
         <v>172</v>
       </c>
-      <c r="D75" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0.6666666666666666</v>
+      <c r="D75" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s" s="17">
+        <v>27</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -3328,16 +3443,16 @@
         <v>173</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s" s="8">
         <v>174</v>
       </c>
-      <c r="D76" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E76" s="15">
-        <v>0.7272727272727273</v>
+      <c r="D76" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
@@ -3353,10 +3468,12 @@
       <c r="C77" t="s" s="8">
         <v>176</v>
       </c>
-      <c r="D77" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E77" s="12"/>
+      <c r="D77" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0.7272727272727273</v>
+      </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3366,16 +3483,16 @@
         <v>177</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s" s="8">
         <v>178</v>
       </c>
-      <c r="D78" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E78" s="15">
-        <v>0.4848484848484849</v>
+      <c r="D78" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0.5757575757575758</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
@@ -3386,20 +3503,40 @@
         <v>179</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s" s="8">
         <v>180</v>
       </c>
-      <c r="D79" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="E79" s="11">
-        <v>0.6060606060606061</v>
+      <c r="D79" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0.4848484848484849</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
+    </row>
+    <row r="80" ht="21" customHeight="1">
+      <c r="A80" t="s" s="6">
+        <v>181</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s" s="8">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>Surname</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>H180596M</t>
-  </si>
-  <si>
-    <t>ABS</t>
   </si>
   <si>
     <t>Chifodya</t>
@@ -778,7 +775,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -829,9 +826,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2075,22 +2069,20 @@
       <c r="D7" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="17">
-        <v>27</v>
-      </c>
+      <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="C8" t="s" s="8">
         <v>29</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>30</v>
       </c>
       <c r="D8" t="s" s="8">
         <v>11</v>
@@ -2104,13 +2096,13 @@
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="C9" t="s" s="8">
         <v>32</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>33</v>
       </c>
       <c r="D9" t="s" s="8">
         <v>11</v>
@@ -2124,13 +2116,13 @@
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="13">
         <v>18</v>
@@ -2144,15 +2136,15 @@
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E11" s="14">
@@ -2164,15 +2156,15 @@
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="C12" t="s" s="8">
         <v>39</v>
       </c>
-      <c r="C12" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s" s="18">
+      <c r="D12" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E12" s="14">
@@ -2184,15 +2176,15 @@
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E13" s="14">
@@ -2204,15 +2196,15 @@
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E14" s="14">
@@ -2224,15 +2216,15 @@
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E15" s="14">
@@ -2244,13 +2236,13 @@
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s" s="16">
         <v>18</v>
@@ -2264,13 +2256,13 @@
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s" s="8">
         <v>11</v>
@@ -2284,13 +2276,13 @@
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="C18" t="s" s="8">
         <v>52</v>
-      </c>
-      <c r="C18" t="s" s="8">
-        <v>53</v>
       </c>
       <c r="D18" t="s" s="13">
         <v>18</v>
@@ -2304,15 +2296,15 @@
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="C19" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="C19" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s" s="18">
+      <c r="D19" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E19" s="14">
@@ -2324,13 +2316,13 @@
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s" s="16">
         <v>18</v>
@@ -2344,13 +2336,13 @@
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s" s="8">
         <v>11</v>
@@ -2364,15 +2356,15 @@
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s" s="7">
         <v>61</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="C22" t="s" s="8">
         <v>62</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s" s="19">
+      <c r="D22" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E22" s="14">
@@ -2384,13 +2376,13 @@
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s" s="8">
         <v>11</v>
@@ -2404,13 +2396,13 @@
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s" s="7">
         <v>66</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="C24" t="s" s="8">
         <v>67</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>68</v>
       </c>
       <c r="D24" t="s" s="8">
         <v>11</v>
@@ -2424,13 +2416,13 @@
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s" s="8">
         <v>69</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s" s="8">
-        <v>70</v>
       </c>
       <c r="D25" t="s" s="8">
         <v>11</v>
@@ -2444,15 +2436,15 @@
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s" s="7">
         <v>71</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="C26" t="s" s="8">
         <v>72</v>
       </c>
-      <c r="C26" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s" s="19">
+      <c r="D26" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E26" s="14">
@@ -2464,13 +2456,13 @@
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s" s="8">
         <v>11</v>
@@ -2484,15 +2476,15 @@
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E28" s="14">
@@ -2504,13 +2496,13 @@
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="6">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s" s="7">
         <v>78</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="C29" t="s" s="8">
         <v>79</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>80</v>
       </c>
       <c r="D29" t="s" s="8">
         <v>11</v>
@@ -2524,13 +2516,13 @@
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="8">
         <v>81</v>
-      </c>
-      <c r="B30" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s" s="8">
-        <v>82</v>
       </c>
       <c r="D30" t="s" s="8">
         <v>11</v>
@@ -2544,13 +2536,13 @@
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s" s="8">
         <v>11</v>
@@ -2564,15 +2556,15 @@
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="6">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="B32" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s" s="19">
+      <c r="D32" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E32" s="14">
@@ -2584,13 +2576,13 @@
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s" s="8">
         <v>87</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>88</v>
       </c>
       <c r="D33" t="s" s="8">
         <v>11</v>
@@ -2604,13 +2596,13 @@
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C34" t="s" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s" s="8">
         <v>11</v>
@@ -2624,13 +2616,13 @@
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="D35" t="s" s="19">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E35" s="14">
@@ -2642,13 +2634,13 @@
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C36" t="s" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s" s="8">
         <v>11</v>
@@ -2662,13 +2654,13 @@
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s" s="8">
         <v>95</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s" s="8">
-        <v>96</v>
       </c>
       <c r="D37" t="s" s="8">
         <v>11</v>
@@ -2682,18 +2674,18 @@
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s" s="8">
-        <v>98</v>
-      </c>
       <c r="D38" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>0.3636363636363636</v>
       </c>
       <c r="F38" s="12"/>
@@ -2702,13 +2694,13 @@
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s" s="8">
         <v>99</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C39" t="s" s="8">
-        <v>100</v>
       </c>
       <c r="D39" t="s" s="16">
         <v>18</v>
@@ -2722,13 +2714,13 @@
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s" s="7">
         <v>101</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="C40" t="s" s="8">
         <v>102</v>
-      </c>
-      <c r="C40" t="s" s="8">
-        <v>103</v>
       </c>
       <c r="D40" t="s" s="8">
         <v>11</v>
@@ -2742,15 +2734,15 @@
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C41" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E41" s="14">
@@ -2762,13 +2754,13 @@
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s" s="8">
         <v>11</v>
@@ -2782,11 +2774,11 @@
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" t="s" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s" s="8">
         <v>11</v>
@@ -2800,13 +2792,13 @@
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="8">
         <v>109</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s" s="8">
-        <v>110</v>
       </c>
       <c r="D44" t="s" s="8">
         <v>11</v>
@@ -2820,15 +2812,15 @@
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C45" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="D45" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E45" s="14">
@@ -2840,13 +2832,13 @@
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C46" t="s" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s" s="8">
         <v>11</v>
@@ -2860,13 +2852,13 @@
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C47" t="s" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s" s="13">
         <v>18</v>
@@ -2880,13 +2872,13 @@
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C48" t="s" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s" s="16">
         <v>18</v>
@@ -2900,13 +2892,13 @@
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>11</v>
@@ -2920,15 +2912,15 @@
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C50" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s" s="19">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E50" s="14">
@@ -2940,13 +2932,13 @@
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="6">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s" s="8">
         <v>123</v>
-      </c>
-      <c r="B51" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C51" t="s" s="8">
-        <v>124</v>
       </c>
       <c r="D51" t="s" s="8">
         <v>11</v>
@@ -2960,13 +2952,13 @@
     </row>
     <row r="52" ht="21" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C52" t="s" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" t="s" s="8">
         <v>11</v>
@@ -2980,15 +2972,15 @@
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="6">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s" s="8">
         <v>126</v>
       </c>
-      <c r="B53" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="D53" t="s" s="19">
+      <c r="D53" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E53" s="14">
@@ -3000,13 +2992,13 @@
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C54" t="s" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s" s="8">
         <v>11</v>
@@ -3020,18 +3012,18 @@
     </row>
     <row r="55" ht="21" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C55" t="s" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="20">
         <v>0.3333333333333333</v>
       </c>
       <c r="F55" s="12"/>
@@ -3040,13 +3032,13 @@
     </row>
     <row r="56" ht="21" customHeight="1">
       <c r="A56" t="s" s="6">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s" s="8">
         <v>132</v>
-      </c>
-      <c r="B56" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s" s="8">
-        <v>133</v>
       </c>
       <c r="D56" t="s" s="8">
         <v>11</v>
@@ -3060,13 +3052,13 @@
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C57" t="s" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s" s="8">
         <v>11</v>
@@ -3080,15 +3072,15 @@
     </row>
     <row r="58" ht="21" customHeight="1">
       <c r="A58" t="s" s="6">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s" s="7">
         <v>136</v>
       </c>
-      <c r="B58" t="s" s="7">
+      <c r="C58" t="s" s="8">
         <v>137</v>
       </c>
-      <c r="C58" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="D58" t="s" s="19">
+      <c r="D58" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E58" s="14">
@@ -3100,13 +3092,13 @@
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C59" t="s" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s" s="8">
         <v>11</v>
@@ -3120,15 +3112,15 @@
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="6">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s" s="8">
         <v>141</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="D60" t="s" s="19">
+      <c r="D60" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E60" s="14">
@@ -3140,13 +3132,13 @@
     </row>
     <row r="61" ht="21" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C61" t="s" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s" s="8">
         <v>11</v>
@@ -3160,15 +3152,15 @@
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="6">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s" s="8">
         <v>145</v>
       </c>
-      <c r="B62" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C62" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="D62" t="s" s="19">
+      <c r="D62" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E62" s="14">
@@ -3180,13 +3172,13 @@
     </row>
     <row r="63" ht="21" customHeight="1">
       <c r="A63" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s" s="8">
         <v>147</v>
-      </c>
-      <c r="B63" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s" s="8">
-        <v>148</v>
       </c>
       <c r="D63" t="s" s="8">
         <v>11</v>
@@ -3200,13 +3192,13 @@
     </row>
     <row r="64" ht="21" customHeight="1">
       <c r="A64" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s" s="8">
         <v>149</v>
-      </c>
-      <c r="B64" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C64" t="s" s="8">
-        <v>150</v>
       </c>
       <c r="D64" t="s" s="13">
         <v>18</v>
@@ -3220,15 +3212,15 @@
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s" s="8">
         <v>151</v>
       </c>
-      <c r="B65" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C65" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="D65" t="s" s="18">
+      <c r="D65" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E65" s="14">
@@ -3240,15 +3232,15 @@
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s" s="8">
         <v>153</v>
       </c>
-      <c r="B66" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C66" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="D66" t="s" s="18">
+      <c r="D66" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E66" s="14">
@@ -3260,15 +3252,15 @@
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s" s="8">
         <v>155</v>
       </c>
-      <c r="B67" t="s" s="7">
-        <v>102</v>
-      </c>
-      <c r="C67" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="D67" t="s" s="18">
+      <c r="D67" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E67" s="14">
@@ -3280,15 +3272,15 @@
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C68" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="D68" t="s" s="18">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E68" s="14">
@@ -3300,13 +3292,13 @@
     </row>
     <row r="69" ht="21" customHeight="1">
       <c r="A69" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s" s="8">
         <v>159</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="C69" t="s" s="8">
-        <v>160</v>
       </c>
       <c r="D69" t="s" s="16">
         <v>18</v>
@@ -3320,13 +3312,13 @@
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C70" t="s" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s" s="8">
         <v>11</v>
@@ -3340,13 +3332,13 @@
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s" s="8">
         <v>163</v>
-      </c>
-      <c r="B71" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C71" t="s" s="8">
-        <v>164</v>
       </c>
       <c r="D71" t="s" s="8">
         <v>11</v>
@@ -3360,13 +3352,13 @@
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s" s="8">
         <v>165</v>
-      </c>
-      <c r="B72" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="C72" t="s" s="8">
-        <v>166</v>
       </c>
       <c r="D72" t="s" s="8">
         <v>11</v>
@@ -3380,15 +3372,15 @@
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s" s="8">
         <v>167</v>
       </c>
-      <c r="B73" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="C73" t="s" s="8">
-        <v>168</v>
-      </c>
-      <c r="D73" t="s" s="19">
+      <c r="D73" t="s" s="18">
         <v>18</v>
       </c>
       <c r="E73" s="14">
@@ -3400,13 +3392,13 @@
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C74" t="s" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s" s="8">
         <v>11</v>
@@ -3420,33 +3412,31 @@
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C75" t="s" s="8">
-        <v>172</v>
-      </c>
-      <c r="D75" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="E75" t="s" s="17">
-        <v>27</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D75" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
     <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="6">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s" s="8">
         <v>173</v>
-      </c>
-      <c r="B76" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="C76" t="s" s="8">
-        <v>174</v>
       </c>
       <c r="D76" t="s" s="8">
         <v>11</v>
@@ -3460,13 +3450,13 @@
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C77" t="s" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s" s="13">
         <v>18</v>
@@ -3480,15 +3470,15 @@
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C78" t="s" s="8">
-        <v>178</v>
-      </c>
-      <c r="D78" t="s" s="18">
+        <v>177</v>
+      </c>
+      <c r="D78" t="s" s="17">
         <v>18</v>
       </c>
       <c r="E78" s="14">
@@ -3500,13 +3490,13 @@
     </row>
     <row r="79" ht="21" customHeight="1">
       <c r="A79" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s" s="8">
         <v>179</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>180</v>
       </c>
       <c r="D79" t="s" s="16">
         <v>18</v>
@@ -3520,13 +3510,13 @@
     </row>
     <row r="80" ht="21" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C80" t="s" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s" s="8">
         <v>11</v>

--- a/1222020cw.xlsx
+++ b/1222020cw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Surname</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>Test_2</t>
+    <t>Quiz_1</t>
   </si>
   <si>
     <t>Test_3</t>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>H180596M</t>
+  </si>
+  <si>
+    <t>ABS</t>
   </si>
   <si>
     <t>Chifodya</t>
@@ -564,9 +567,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="# ###/###"/>
+    <numFmt numFmtId="60" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -775,7 +779,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -806,13 +810,22 @@
     <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -826,6 +839,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1974,9 +1990,11 @@
       <c r="E2" s="9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="F2" s="10">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" ht="21" customHeight="1">
       <c r="A3" t="s" s="6">
@@ -1991,12 +2009,14 @@
       <c r="D3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" ht="21" customHeight="1">
       <c r="A4" t="s" s="6">
@@ -2011,12 +2031,14 @@
       <c r="D4" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <v>0.6060606060606061</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="15">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" ht="21" customHeight="1">
       <c r="A5" t="s" s="6">
@@ -2031,12 +2053,14 @@
       <c r="D5" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="15">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" ht="21" customHeight="1">
       <c r="A6" t="s" s="6">
@@ -2048,1485 +2072,1639 @@
       <c r="C6" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="15">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" t="s" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D7" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="21" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" ht="21" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>0.696969696969697</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" ht="21" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C10" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17">
         <v>0.696969696969697</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="17">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" ht="21" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C11" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E12" s="17">
         <v>0.5151515151515151</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="17">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" ht="21" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C13" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C14" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17">
         <v>0.8787878787878788</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" ht="21" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C15" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E15" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" ht="21" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C16" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E16" s="17">
         <v>0.5151515151515151</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="17">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" ht="21" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C17" t="s" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" ht="21" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17">
         <v>0.5757575757575758</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="21" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" ht="21" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C20" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" ht="21" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C21" t="s" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>0.696969696969697</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" ht="21" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E22" s="17">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="17">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" ht="21" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C23" t="s" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" ht="21" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>0.3939393939393939</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" ht="21" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>0.5151515151515151</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" ht="21" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E26" s="17">
         <v>0.4242424242424243</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" ht="21" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C27" t="s" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="17">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" ht="21" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C28" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E28" s="17">
         <v>0.4848484848484849</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="F28" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" ht="21" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>0.6060606060606061</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="F29" s="15">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="12">
         <v>0.696969696969697</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="F30" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" ht="21" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C31" t="s" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>0.8484848484848485</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="F31" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" ht="21" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E32" s="17">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" ht="21" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="12">
         <v>0.696969696969697</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="F33" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" ht="21" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C34" t="s" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="17">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" ht="21" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>90</v>
-      </c>
-      <c r="B35" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="B35" s="18"/>
       <c r="C35" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E35" s="14">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E35" s="17">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="F35" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" ht="21" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C36" t="s" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="12">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="F36" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" ht="21" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="12">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="F37" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" ht="21" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E38" s="19">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E38" s="23">
         <v>0.3636363636363636</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="F38" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" ht="21" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E39" s="14">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E39" s="17">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="F39" s="17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" ht="21" customHeight="1">
       <c r="A40" t="s" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="12">
         <v>0.5151515151515151</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" ht="21" customHeight="1">
       <c r="A41" t="s" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C41" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E41" s="14">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E41" s="17">
         <v>0.8787878787878788</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="F41" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" ht="21" customHeight="1">
       <c r="A42" t="s" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="12">
         <v>0.3939393939393939</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="F42" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" ht="21" customHeight="1">
       <c r="A43" t="s" s="6">
-        <v>106</v>
-      </c>
-      <c r="B43" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="B43" s="18"/>
       <c r="C43" t="s" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="12">
         <v>0.4545454545454545</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="F43" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" ht="21" customHeight="1">
       <c r="A44" t="s" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="12">
         <v>0.5757575757575758</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="F44" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" ht="21" customHeight="1">
       <c r="A45" t="s" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C45" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E45" s="14">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E45" s="17">
         <v>0.5454545454545454</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="F45" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" t="s" s="6">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C46" t="s" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="12">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="F46" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" ht="21" customHeight="1">
       <c r="A47" t="s" s="6">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C47" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E47" s="14">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E47" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="F47" s="17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" ht="21" customHeight="1">
       <c r="A48" t="s" s="6">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C48" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E48" s="14">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E48" s="17">
         <v>0.1818181818181818</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="F48" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" ht="21" customHeight="1">
       <c r="A49" t="s" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C49" t="s" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="12">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="F49" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" ht="21" customHeight="1">
       <c r="A50" t="s" s="6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C50" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E50" s="14">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E50" s="17">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="F50" s="15">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" ht="21" customHeight="1">
       <c r="A51" t="s" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="12">
         <v>0.8787878787878788</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="F51" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" ht="21" customHeight="1">
       <c r="A52" t="s" s="6">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C52" t="s" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="12">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="F52" s="17">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" ht="21" customHeight="1">
       <c r="A53" t="s" s="6">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="D53" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E53" s="14">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E53" s="17">
         <v>0.5757575757575758</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="F53" s="15">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" ht="21" customHeight="1">
       <c r="A54" t="s" s="6">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C54" t="s" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="12">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="F54" s="17">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" ht="21" customHeight="1">
       <c r="A55" t="s" s="6">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s" s="7">
         <v>23</v>
       </c>
       <c r="C55" t="s" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="F55" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" ht="21" customHeight="1">
       <c r="A56" t="s" s="6">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="12">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="17">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" ht="21" customHeight="1">
       <c r="A57" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s" s="7">
         <v>9</v>
       </c>
       <c r="C57" t="s" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="12">
         <v>0.9696969696969697</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" ht="21" customHeight="1">
       <c r="A58" t="s" s="6">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E58" s="14">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E58" s="17">
         <v>0.3939393939393939</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" ht="21" customHeight="1">
       <c r="A59" t="s" s="6">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C59" t="s" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="12">
         <v>0.8484848484848485</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="17">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" ht="21" customHeight="1">
       <c r="A60" t="s" s="6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="D60" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E60" s="14">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E60" s="17">
         <v>0.696969696969697</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" ht="21" customHeight="1">
       <c r="A61" t="s" s="6">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C61" t="s" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="12">
         <v>0.696969696969697</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="17">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" ht="21" customHeight="1">
       <c r="A62" t="s" s="6">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="D62" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E62" s="14">
+        <v>146</v>
+      </c>
+      <c r="D62" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E62" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="17">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" ht="21" customHeight="1">
       <c r="A63" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="12">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="F63" s="17">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" ht="21" customHeight="1">
       <c r="A64" t="s" s="6">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="D64" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E64" s="14">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E64" s="17">
         <v>0.9696969696969697</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="F64" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" ht="21" customHeight="1">
       <c r="A65" t="s" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="D65" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E65" s="14">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E65" s="17">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="F65" s="17">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" ht="21" customHeight="1">
       <c r="A66" t="s" s="6">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="D66" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E66" s="14">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E66" s="17">
         <v>0.7878787878787878</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="F66" s="17">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" ht="21" customHeight="1">
       <c r="A67" t="s" s="6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="D67" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E67" s="14">
+        <v>156</v>
+      </c>
+      <c r="D67" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E67" s="17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="F67" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
     </row>
     <row r="68" ht="21" customHeight="1">
       <c r="A68" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C68" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="D68" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E68" s="14">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E68" s="17">
         <v>0.7575757575757576</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="F68" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
     </row>
     <row r="69" ht="21" customHeight="1">
       <c r="A69" t="s" s="6">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="D69" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E69" s="14">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E69" s="17">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="F69" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
     </row>
     <row r="70" ht="21" customHeight="1">
       <c r="A70" t="s" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C70" t="s" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="12">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="F70" s="17">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" ht="21" customHeight="1">
       <c r="A71" t="s" s="6">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="12">
         <v>0.6363636363636364</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="F71" s="17">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
     </row>
     <row r="72" ht="21" customHeight="1">
       <c r="A72" t="s" s="6">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="12">
         <v>0.3939393939393939</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" ht="21" customHeight="1">
       <c r="A73" t="s" s="6">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E73" s="14">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E73" s="17">
         <v>0.8181818181818182</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="F73" s="17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" t="s" s="6">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s" s="7">
         <v>20</v>
       </c>
       <c r="C74" t="s" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="12">
         <v>0.9393939393939394</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="F74" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" ht="21" customHeight="1">
       <c r="A75" t="s" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C75" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="D75" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="D75" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" ht="21" customHeight="1">
       <c r="A76" t="s" s="6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="F76" s="17">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
     </row>
     <row r="77" ht="21" customHeight="1">
       <c r="A77" t="s" s="6">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C77" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="D77" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E77" s="14">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E77" s="17">
         <v>0.7272727272727273</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="F77" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
     </row>
     <row r="78" ht="21" customHeight="1">
       <c r="A78" t="s" s="6">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s" s="7">
         <v>16</v>
       </c>
       <c r="C78" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="D78" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E78" s="14">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="E78" s="17">
         <v>0.5757575757575758</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="15">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
     </row>
     <row r="79" ht="21" customHeight="1">
       <c r="A79" t="s" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="D79" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="E79" s="14">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="E79" s="17">
         <v>0.4848484848484849</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="F79" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" ht="21" customHeight="1">
       <c r="A80" t="s" s="6">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C80" t="s" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="12">
         <v>0.6060606060606061</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="F80" s="17">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
